--- a/nesh/lambda calculations with revised sigma_m and c_r linear function of L.xlsx
+++ b/nesh/lambda calculations with revised sigma_m and c_r linear function of L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nesh/Documents/Repositories/icecontinuum/nesh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41ADF277-BDE6-0E43-8214-EDCF3345AC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694A882C-0824-4C40-80F2-E18B44DC62BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="500" windowWidth="15820" windowHeight="16420" xr2:uid="{2DDA9610-AECA-0C43-BEDC-9A13351D73ED}"/>
+    <workbookView xWindow="11800" yWindow="500" windowWidth="16500" windowHeight="16420" xr2:uid="{2DDA9610-AECA-0C43-BEDC-9A13351D73ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3504,15 +3504,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>886604</xdr:colOff>
+      <xdr:colOff>423334</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>102079</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>27556</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>191697</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>67734</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3840,8 +3840,8 @@
   <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O102" sqref="O102"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87:E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
